--- a/biology/Botanique/Square_Félix-Desruelles/Square_Félix-Desruelles.xlsx
+++ b/biology/Botanique/Square_Félix-Desruelles/Square_Félix-Desruelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_F%C3%A9lix-Desruelles</t>
+          <t>Square_Félix-Desruelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Félix-Desruelles est un espace vert du 6e arrondissement de Paris, dans le quartier Saint-Germain-des-Prés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_F%C3%A9lix-Desruelles</t>
+          <t>Square_Félix-Desruelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible à partir du boulevard Saint-Germain.
 Il est desservi par la ligne 10 à la station  Mabillon, par la ligne 4 à la station Saint-Germain-des-Prés.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_F%C3%A9lix-Desruelles</t>
+          <t>Square_Félix-Desruelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à Félix Desruelles (1865-1943), sculpteur qui réalisa la fontaine Pastorale érigée le 15 mars 1925 en pierre de Chauvigny.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_F%C3%A9lix-Desruelles</t>
+          <t>Square_Félix-Desruelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +591,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors du percement du boulevard Saint-Germain, les rues Childebert et d'Erfurth, ouvertes dans les années 1710, sont supprimées. À la suite de la démolition des maisons qui enserraient l'église Saint-Germain-des-Prés, un square d'une superficie de 1 511 m2 est créé en 1872. Il est situé au niveau du 168 bis, boulevard Saint-Germain, au pied de l'église Saint-Germain-des-Prés, le long du boulevard Saint-Germain. Ne pas confondre avec le square Laurent-Prache situé à l'angle opposé de l'église (rue de l'Abbaye).
 Le Portique monumental Jules-Coutan (1900) de style Art nouveau en grès émaillé conçu par l'architecte Charles-Auguste Risler (1864-1937) et le sculpteur Jules Coutan, pour illustrer l'utilisation des produits de la Manufacture nationale de Sèvres lors de l'Exposition universelle de 1900.
 Monument à Bernard Palissy, bronze de Louis-Ernest Barrias (hypothétiquement créé également pour l'Exposition universelle de 1900), dont un second exemplaire se trouve devant la Manufacture nationale de Sèvres.
 La fontaine Pastorale (1925), sculpture de Félix-Alexandre Desruelles.
-Au fond du square, une stèle en verre rappelle la mémoire des enfants juifs en bas âge du 6e arrondissement, assassinés pendant la Seconde Guerre mondiale[1].
+Au fond du square, une stèle en verre rappelle la mémoire des enfants juifs en bas âge du 6e arrondissement, assassinés pendant la Seconde Guerre mondiale.
  Éléments particuliers 
 			Portique émaillé.
 			Portique émaillé (détail).
